--- a/trabajos.inacap.2019/Desarrollo del emprendimiento/Proyecto ABpro Nª4/Carta Gantt Emprendimiento.xlsx
+++ b/trabajos.inacap.2019/Desarrollo del emprendimiento/Proyecto ABpro Nª4/Carta Gantt Emprendimiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangf\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangf\Documents\inacap.2019\trabajos.inacap.2019\Desarrollo del emprendimiento\Proyecto ABpro Nª4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13B3084-3A4F-4E12-B1DA-E6F7A976A436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5D90A-B9F1-496E-A040-FD202A71BF64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73287ABA-5443-4279-9671-ECC6510BF1F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{73287ABA-5443-4279-9671-ECC6510BF1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -207,49 +207,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,233 +575,289 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="14">
+        <v>43800</v>
+      </c>
+      <c r="G2" s="14">
+        <v>45627</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4">
+        <v>43800</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44166</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="4">
+        <v>44166</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44531</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="4">
+        <v>44531</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45261</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="4">
+        <v>45261</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45444</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="4">
+        <v>45444</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45627</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="14">
+        <v>43709</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43770</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="4">
+        <v>43709</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43715</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="4">
+        <v>43716</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43729</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="4">
+        <v>43730</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43738</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="4">
+        <v>43739</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43770</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="14">
+        <v>43770</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43800</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="4">
+        <v>43770</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43783</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="17">
+        <v>43784</v>
+      </c>
+      <c r="G15" s="17">
+        <v>43799</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="B3:D3"/>
@@ -803,8 +867,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
